--- a/01.docs/셀비 운영 정보_개발.xlsx
+++ b/01.docs/셀비 운영 정보_개발.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="630" yWindow="600" windowWidth="20175" windowHeight="7425"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="운영정보" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="지출" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="개발툴버전" sheetId="3" r:id="rId5"/>
+    <sheet name="운영정보" sheetId="1" r:id="rId1"/>
+    <sheet name="지출" sheetId="2" r:id="rId2"/>
+    <sheet name="개발툴버전" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
   <si>
     <t>좌표</t>
   </si>
@@ -178,35 +181,71 @@
   <si>
     <t>selvi0213git@gmail.com</t>
   </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>set</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -214,7 +253,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -235,111 +274,379 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="6.0" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B8" sqref="B8" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="43.0"/>
-    <col customWidth="1" min="2" max="2" width="28.71"/>
-    <col customWidth="1" min="3" max="3" width="25.14"/>
-    <col customWidth="1" min="4" max="4" width="37.71"/>
+    <col min="1" max="1" width="43" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" hidden="1">
+    <row r="1" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" hidden="1">
+    <row r="2" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" hidden="1">
+    <row r="3" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="5"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" hidden="1">
+    <row r="4" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" hidden="1">
+    <row r="5" spans="1:4" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" ht="27.0" customHeight="1">
+    <row r="6" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -353,7 +660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" ht="42.75" customHeight="1">
+    <row r="7" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -367,7 +674,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -378,7 +685,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -389,7 +696,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -400,7 +707,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -411,7 +718,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -422,7 +729,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
@@ -433,7 +740,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
@@ -444,7 +751,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
@@ -458,7 +765,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -469,7 +776,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>45</v>
       </c>
@@ -480,7 +787,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>46</v>
       </c>
@@ -491,131 +798,136 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="3"/>
+    <row r="19" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>48</v>
+      </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A17"/>
+    <hyperlink ref="A17" r:id="rId1"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="32.0"/>
-    <col customWidth="1" min="2" max="2" width="18.0"/>
-    <col customWidth="1" min="3" max="3" width="20.71"/>
-    <col customWidth="1" min="4" max="4" width="87.29"/>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="87.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>286400.0</v>
+        <v>286400</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -624,7 +936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -638,12 +950,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="10">
-        <v>44000.0</v>
+        <v>44000</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>29</v>
@@ -652,12 +964,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B5" s="6">
-        <v>119600.0</v>
+        <v>119600</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -667,28 +979,30 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D2"/>
-    <hyperlink r:id="rId2" ref="D4"/>
-    <hyperlink r:id="rId3" ref="D5"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
   </hyperlinks>
-  <drawing r:id="rId4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="27.57"/>
-    <col customWidth="1" min="2" max="2" width="28.43"/>
-    <col customWidth="1" min="3" max="3" width="58.29"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="58.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.25" customHeight="1">
+    <row r="1" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -700,7 +1014,7 @@
       </c>
       <c r="D1" s="4"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -712,6 +1026,7 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>